--- a/report_zone/Report_zone11.xlsx
+++ b/report_zone/Report_zone11.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -16817,7 +16817,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -17725,7 +17725,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -19477,7 +19477,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -21217,7 +21217,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -21985,7 +21985,7 @@
       <c r="HE24" t="inlineStr"/>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -22873,7 +22873,7 @@
       <c r="HE25" t="inlineStr"/>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -23777,7 +23777,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -24693,7 +24693,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -25585,7 +25585,7 @@
       <c r="HE28" t="inlineStr"/>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -26417,7 +26417,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -27225,7 +27225,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -28145,7 +28145,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -29061,7 +29061,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -29809,7 +29809,7 @@
       <c r="HE33" t="inlineStr"/>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -30717,7 +30717,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -31625,7 +31625,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -32533,7 +32533,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -33441,7 +33441,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -35269,7 +35269,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -36181,7 +36181,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -37089,7 +37089,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -37997,7 +37997,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -38909,7 +38909,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -39825,7 +39825,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -40733,7 +40733,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -41641,7 +41641,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -42549,7 +42549,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -43469,7 +43469,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -44377,7 +44377,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -45289,7 +45289,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -46209,7 +46209,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -47125,7 +47125,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -48037,7 +48037,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -48949,7 +48949,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -49865,7 +49865,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -50781,7 +50781,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -51693,7 +51693,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -52609,7 +52609,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -53525,7 +53525,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -54441,7 +54441,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -55357,7 +55357,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -56273,7 +56273,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -57185,7 +57185,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -58101,7 +58101,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -59017,7 +59017,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -59929,7 +59929,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -60837,7 +60837,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -61745,7 +61745,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -62653,7 +62653,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -63561,7 +63561,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -64469,7 +64469,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -65377,7 +65377,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -66285,7 +66285,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -67193,7 +67193,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -68109,7 +68109,7 @@
       </c>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -69025,7 +69025,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -69933,7 +69933,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -70853,7 +70853,7 @@
       </c>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -71769,7 +71769,7 @@
       </c>
       <c r="HF79" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -72685,7 +72685,7 @@
       </c>
       <c r="HF80" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -73601,7 +73601,7 @@
       </c>
       <c r="HF81" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -74521,7 +74521,7 @@
       </c>
       <c r="HF82" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
@@ -75433,7 +75433,7 @@
       </c>
       <c r="HF83" t="inlineStr">
         <is>
-          <t>2025-05-19 05:56:05</t>
+          <t>2025-05-19 19:56:09</t>
         </is>
       </c>
     </row>
